--- a/data_created/risk_score_cities.xlsx
+++ b/data_created/risk_score_cities.xlsx
@@ -4748,7 +4748,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.342270207943605</v>
+        <v>0.118157970477171</v>
       </c>
     </row>
     <row r="3">
@@ -4765,7 +4765,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0166825016855061</v>
+        <v>-0.21004596290336</v>
       </c>
     </row>
     <row r="4">
@@ -4782,7 +4782,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.226984464096513</v>
+        <v>-0.468080820804894</v>
       </c>
     </row>
     <row r="5">
@@ -4799,7 +4799,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.313440131873947</v>
+        <v>0.124620565807548</v>
       </c>
     </row>
     <row r="6">
@@ -4816,7 +4816,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0.341030493136833</v>
+        <v>0.157590319949541</v>
       </c>
     </row>
     <row r="7">
@@ -4833,7 +4833,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.428987948240511</v>
+        <v>-0.639123774341174</v>
       </c>
     </row>
     <row r="8">
@@ -4850,7 +4850,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.674360522938994</v>
+        <v>-0.871340048449975</v>
       </c>
     </row>
     <row r="9">
@@ -4867,7 +4867,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.308735269395372</v>
+        <v>-0.486964056077484</v>
       </c>
     </row>
     <row r="10">
@@ -4884,7 +4884,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.332138197621924</v>
+        <v>-0.517004816807362</v>
       </c>
     </row>
     <row r="11">
@@ -4901,7 +4901,7 @@
         <v>37</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.595295514618169</v>
+        <v>-0.775367362500233</v>
       </c>
     </row>
     <row r="12">
@@ -4918,7 +4918,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.203697328220947</v>
+        <v>-0.398328331468726</v>
       </c>
     </row>
     <row r="13">
@@ -4935,7 +4935,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.110578641669028</v>
+        <v>-0.305067130315304</v>
       </c>
     </row>
     <row r="14">
@@ -4952,7 +4952,7 @@
         <v>46</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0664546425025844</v>
+        <v>-0.254542014332169</v>
       </c>
     </row>
     <row r="15">
@@ -4969,7 +4969,7 @@
         <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.190031802562649</v>
+        <v>-0.3847213969254</v>
       </c>
     </row>
     <row r="16">
@@ -4986,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0849189255980353</v>
+        <v>-0.109483939077699</v>
       </c>
     </row>
     <row r="17">
@@ -5003,7 +5003,7 @@
         <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>0.168631222258402</v>
+        <v>-0.0278389126474198</v>
       </c>
     </row>
     <row r="18">
@@ -5020,7 +5020,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.716013686189502</v>
+        <v>-0.903986794090951</v>
       </c>
     </row>
     <row r="19">
@@ -5037,7 +5037,7 @@
         <v>61</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0321367181681244</v>
+        <v>-0.126126030757494</v>
       </c>
     </row>
     <row r="20">
@@ -5054,7 +5054,7 @@
         <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>0.171858014184446</v>
+        <v>0.00791140679980556</v>
       </c>
     </row>
     <row r="21">
@@ -5071,7 +5071,7 @@
         <v>68</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.81193561247807</v>
+        <v>-0.974045746151475</v>
       </c>
     </row>
     <row r="22">
@@ -5088,7 +5088,7 @@
         <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00811288112460086</v>
+        <v>-0.176881670088391</v>
       </c>
     </row>
     <row r="23">
@@ -5105,7 +5105,7 @@
         <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.270086272894938</v>
+        <v>-0.446396872333825</v>
       </c>
     </row>
     <row r="24">
@@ -5122,7 +5122,7 @@
         <v>77</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0399834631867191</v>
+        <v>-0.166078180303281</v>
       </c>
     </row>
     <row r="25">
@@ -5139,7 +5139,7 @@
         <v>80</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.169749335656426</v>
+        <v>-0.320604402394011</v>
       </c>
     </row>
     <row r="26">
@@ -5156,7 +5156,7 @@
         <v>84</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.237427643732193</v>
+        <v>-0.384518980524196</v>
       </c>
     </row>
     <row r="27">
@@ -5173,7 +5173,7 @@
         <v>87</v>
       </c>
       <c r="E27" t="n">
-        <v>0.281659423582496</v>
+        <v>0.162771507707229</v>
       </c>
     </row>
     <row r="28">
@@ -5190,7 +5190,7 @@
         <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.161354455220861</v>
+        <v>-0.332932197892721</v>
       </c>
     </row>
     <row r="29">
@@ -5207,7 +5207,7 @@
         <v>93</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.200586191297354</v>
+        <v>-0.36439116478613</v>
       </c>
     </row>
     <row r="30">
@@ -5224,7 +5224,7 @@
         <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>0.165927628959219</v>
+        <v>0.010244410961383</v>
       </c>
     </row>
     <row r="31">
@@ -5241,7 +5241,7 @@
         <v>99</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0245543980479418</v>
+        <v>-0.176558408793975</v>
       </c>
     </row>
     <row r="32">
@@ -5258,7 +5258,7 @@
         <v>102</v>
       </c>
       <c r="E32" t="n">
-        <v>0.109204094003346</v>
+        <v>-0.00520438844413495</v>
       </c>
     </row>
     <row r="33">
@@ -5275,7 +5275,7 @@
         <v>105</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.717224287655758</v>
+        <v>-0.871927594979167</v>
       </c>
     </row>
     <row r="34">
@@ -5292,7 +5292,7 @@
         <v>108</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.146547908870067</v>
+        <v>-0.32042729251558</v>
       </c>
     </row>
     <row r="35">
@@ -5309,7 +5309,7 @@
         <v>111</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.156732478006952</v>
+        <v>-0.293958076607582</v>
       </c>
     </row>
     <row r="36">
@@ -5326,7 +5326,7 @@
         <v>114</v>
       </c>
       <c r="E36" t="n">
-        <v>0.039689870369662</v>
+        <v>-0.13466413822572</v>
       </c>
     </row>
     <row r="37">
@@ -5343,7 +5343,7 @@
         <v>117</v>
       </c>
       <c r="E37" t="n">
-        <v>0.462376912484278</v>
+        <v>0.369045003734253</v>
       </c>
     </row>
     <row r="38">
@@ -5360,7 +5360,7 @@
         <v>120</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.433985998104116</v>
+        <v>-0.578900816404148</v>
       </c>
     </row>
     <row r="39">
@@ -5377,7 +5377,7 @@
         <v>123</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0634915245245287</v>
+        <v>-0.0957773862709802</v>
       </c>
     </row>
     <row r="40">
@@ -5394,7 +5394,7 @@
         <v>126</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.167704848501457</v>
+        <v>-0.288719481010881</v>
       </c>
     </row>
     <row r="41">
@@ -5411,7 +5411,7 @@
         <v>129</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0453471841471458</v>
+        <v>-0.207605701527667</v>
       </c>
     </row>
     <row r="42">
@@ -5428,7 +5428,7 @@
         <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.085890236944131</v>
+        <v>-0.249473975308493</v>
       </c>
     </row>
     <row r="43">
@@ -5445,7 +5445,7 @@
         <v>135</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0144346488088061</v>
+        <v>-0.150908137240364</v>
       </c>
     </row>
     <row r="44">
@@ -5462,7 +5462,7 @@
         <v>138</v>
       </c>
       <c r="E44" t="n">
-        <v>0.208323272833521</v>
+        <v>0.0469041317796774</v>
       </c>
     </row>
     <row r="45">
@@ -5479,7 +5479,7 @@
         <v>141</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.184777241303155</v>
+        <v>-0.357232428964318</v>
       </c>
     </row>
     <row r="46">
@@ -5496,7 +5496,7 @@
         <v>144</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.0903554436113098</v>
+        <v>-0.232240865080558</v>
       </c>
     </row>
     <row r="47">
@@ -5513,7 +5513,7 @@
         <v>147</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.420138295577164</v>
+        <v>-0.59297546994987</v>
       </c>
     </row>
     <row r="48">
@@ -5530,7 +5530,7 @@
         <v>150</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.359088169542091</v>
+        <v>-0.519805446716851</v>
       </c>
     </row>
     <row r="49">
@@ -5547,7 +5547,7 @@
         <v>153</v>
       </c>
       <c r="E49" t="n">
-        <v>0.188651735583519</v>
+        <v>0.0573715592730182</v>
       </c>
     </row>
     <row r="50">
@@ -5564,7 +5564,7 @@
         <v>156</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.325893331714952</v>
+        <v>-0.516147063142798</v>
       </c>
     </row>
     <row r="51">
@@ -5581,7 +5581,7 @@
         <v>159</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0320429236977587</v>
+        <v>-0.157246651662082</v>
       </c>
     </row>
     <row r="52">
@@ -5598,7 +5598,7 @@
         <v>162</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.130435658389495</v>
+        <v>-0.308139619357687</v>
       </c>
     </row>
     <row r="53">
@@ -5615,7 +5615,7 @@
         <v>165</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.187517956988791</v>
+        <v>-0.351590698203027</v>
       </c>
     </row>
     <row r="54">
@@ -5632,7 +5632,7 @@
         <v>168</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.108339116912321</v>
+        <v>-0.253634711855854</v>
       </c>
     </row>
     <row r="55">
@@ -5649,7 +5649,7 @@
         <v>171</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.185259487842085</v>
+        <v>-0.336349405331074</v>
       </c>
     </row>
     <row r="56">
@@ -5666,7 +5666,7 @@
         <v>174</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.343052379699866</v>
+        <v>-0.495653970199042</v>
       </c>
     </row>
     <row r="57">
@@ -5683,7 +5683,7 @@
         <v>177</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0250948298931255</v>
+        <v>-0.180671606293235</v>
       </c>
     </row>
     <row r="58">
@@ -5700,7 +5700,7 @@
         <v>180</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.142198722673156</v>
+        <v>-0.313498486766959</v>
       </c>
     </row>
     <row r="59">
@@ -5717,7 +5717,7 @@
         <v>183</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.0384678979564097</v>
+        <v>-0.20326039496165</v>
       </c>
     </row>
     <row r="60">
@@ -5734,7 +5734,7 @@
         <v>185</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0798791923884051</v>
+        <v>-0.0643731090540466</v>
       </c>
     </row>
     <row r="61">
@@ -5751,7 +5751,7 @@
         <v>188</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0204717335623053</v>
+        <v>-0.116831570271279</v>
       </c>
     </row>
     <row r="62">
@@ -5768,7 +5768,7 @@
         <v>191</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.207635462091125</v>
+        <v>-0.357154836378924</v>
       </c>
     </row>
     <row r="63">
@@ -5785,7 +5785,7 @@
         <v>194</v>
       </c>
       <c r="E63" t="n">
-        <v>0.561436203780663</v>
+        <v>0.390421965646277</v>
       </c>
     </row>
     <row r="64">
@@ -5802,7 +5802,7 @@
         <v>197</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0733176101006475</v>
+        <v>-0.0896762619068571</v>
       </c>
     </row>
     <row r="65">
@@ -5819,7 +5819,7 @@
         <v>200</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.0104700410439102</v>
+        <v>-0.181055792814649</v>
       </c>
     </row>
     <row r="66">
@@ -5836,7 +5836,7 @@
         <v>203</v>
       </c>
       <c r="E66" t="n">
-        <v>0.437705580492517</v>
+        <v>0.288107122625281</v>
       </c>
     </row>
     <row r="67">
@@ -5853,7 +5853,7 @@
         <v>206</v>
       </c>
       <c r="E67" t="n">
-        <v>0.42533726524243</v>
+        <v>0.293555241254623</v>
       </c>
     </row>
     <row r="68">
@@ -5870,7 +5870,7 @@
         <v>209</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.669011405730118</v>
+        <v>-0.822996326061065</v>
       </c>
     </row>
     <row r="69">
@@ -5887,7 +5887,7 @@
         <v>212</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.263044721770438</v>
+        <v>-0.426279060559827</v>
       </c>
     </row>
     <row r="70">
@@ -5904,7 +5904,7 @@
         <v>215</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0359188141378009</v>
+        <v>-0.0810142557952871</v>
       </c>
     </row>
     <row r="71">
@@ -5921,7 +5921,7 @@
         <v>218</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0265077909456768</v>
+        <v>-0.12399629888204</v>
       </c>
     </row>
     <row r="72">
@@ -5938,7 +5938,7 @@
         <v>221</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.196810381355541</v>
+        <v>-0.36911921262107</v>
       </c>
     </row>
     <row r="73">
@@ -5955,7 +5955,7 @@
         <v>224</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.039866672996413</v>
+        <v>-0.170129496827828</v>
       </c>
     </row>
     <row r="74">
@@ -5972,7 +5972,7 @@
         <v>227</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.00761118518955994</v>
+        <v>-0.145024177002323</v>
       </c>
     </row>
     <row r="75">
@@ -5989,7 +5989,7 @@
         <v>230</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0364925410120115</v>
+        <v>-0.177873198658611</v>
       </c>
     </row>
     <row r="76">
@@ -6006,7 +6006,7 @@
         <v>233</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0605141888373488</v>
+        <v>-0.0852876235063814</v>
       </c>
     </row>
     <row r="77">
@@ -6023,7 +6023,7 @@
         <v>236</v>
       </c>
       <c r="E77" t="n">
-        <v>0.263187617033532</v>
+        <v>0.112513497259906</v>
       </c>
     </row>
     <row r="78">
@@ -6040,7 +6040,7 @@
         <v>239</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.0833423469854505</v>
+        <v>-0.234419254881266</v>
       </c>
     </row>
     <row r="79">
@@ -6057,7 +6057,7 @@
         <v>242</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.638890221919432</v>
+        <v>-0.800581867402252</v>
       </c>
     </row>
     <row r="80">
@@ -6074,7 +6074,7 @@
         <v>245</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0240705353257192</v>
+        <v>-0.147735773357867</v>
       </c>
     </row>
     <row r="81">
@@ -6091,7 +6091,7 @@
         <v>248</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0833350741530575</v>
+        <v>-0.0545822054056587</v>
       </c>
     </row>
     <row r="82">
@@ -6108,7 +6108,7 @@
         <v>251</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.0598823709070346</v>
+        <v>-0.197805799000961</v>
       </c>
     </row>
     <row r="83">
@@ -6125,7 +6125,7 @@
         <v>254</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.766328195187491</v>
+        <v>-0.938585945091759</v>
       </c>
     </row>
     <row r="84">
@@ -6142,7 +6142,7 @@
         <v>257</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0000220616016372013</v>
+        <v>-0.130715006238376</v>
       </c>
     </row>
     <row r="85">
@@ -6159,7 +6159,7 @@
         <v>260</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.231247950833433</v>
+        <v>-0.418590047163428</v>
       </c>
     </row>
     <row r="86">
@@ -6176,7 +6176,7 @@
         <v>263</v>
       </c>
       <c r="E86" t="n">
-        <v>0.150906276303944</v>
+        <v>-0.0223600832155814</v>
       </c>
     </row>
     <row r="87">
@@ -6193,7 +6193,7 @@
         <v>266</v>
       </c>
       <c r="E87" t="n">
-        <v>0.196646090456253</v>
+        <v>0.0608752421771502</v>
       </c>
     </row>
     <row r="88">
@@ -6210,7 +6210,7 @@
         <v>269</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.118751785781834</v>
+        <v>-0.279661608912675</v>
       </c>
     </row>
     <row r="89">
@@ -6227,7 +6227,7 @@
         <v>272</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0388411370232819</v>
+        <v>-0.128994095624867</v>
       </c>
     </row>
     <row r="90">
@@ -6244,7 +6244,7 @@
         <v>275</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0606226103480927</v>
+        <v>-0.0847012447326473</v>
       </c>
     </row>
     <row r="91">
@@ -6261,7 +6261,7 @@
         <v>278</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.324247746355865</v>
+        <v>-0.493901730475134</v>
       </c>
     </row>
     <row r="92">
@@ -6278,7 +6278,7 @@
         <v>281</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.0644088389321557</v>
+        <v>-0.240404237723062</v>
       </c>
     </row>
     <row r="93">
@@ -6295,7 +6295,7 @@
         <v>284</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0591301454174575</v>
+        <v>-0.0825554225578143</v>
       </c>
     </row>
     <row r="94">
@@ -6312,7 +6312,7 @@
         <v>287</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.0718471512276952</v>
+        <v>-0.199707453368703</v>
       </c>
     </row>
     <row r="95">
@@ -6329,7 +6329,7 @@
         <v>290</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.182560922614829</v>
+        <v>-0.334107985530617</v>
       </c>
     </row>
     <row r="96">
@@ -6346,7 +6346,7 @@
         <v>293</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.135870648344616</v>
+        <v>-0.305285466838616</v>
       </c>
     </row>
     <row r="97">
@@ -6363,7 +6363,7 @@
         <v>296</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0805654574147994</v>
+        <v>-0.0570075988814877</v>
       </c>
     </row>
     <row r="98">
@@ -6380,7 +6380,7 @@
         <v>299</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.0663620324418947</v>
+        <v>-0.188832945938612</v>
       </c>
     </row>
     <row r="99">
@@ -6397,7 +6397,7 @@
         <v>302</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.150076776809922</v>
+        <v>-0.349078708373958</v>
       </c>
     </row>
     <row r="100">
@@ -6414,7 +6414,7 @@
         <v>305</v>
       </c>
       <c r="E100" t="n">
-        <v>0.145806656419861</v>
+        <v>-0.0000214806392828627</v>
       </c>
     </row>
     <row r="101">
@@ -6431,7 +6431,7 @@
         <v>308</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.123533579178271</v>
+        <v>-0.248371222379235</v>
       </c>
     </row>
     <row r="102">
@@ -6448,7 +6448,7 @@
         <v>311</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.435975047468149</v>
+        <v>-0.613729556491194</v>
       </c>
     </row>
     <row r="103">
@@ -6465,7 +6465,7 @@
         <v>314</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0576741024447374</v>
+        <v>-0.100487128958203</v>
       </c>
     </row>
     <row r="104">
@@ -6482,7 +6482,7 @@
         <v>317</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.267719328210939</v>
+        <v>-0.44423804547905</v>
       </c>
     </row>
     <row r="105">
@@ -6499,7 +6499,7 @@
         <v>320</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.152077884746547</v>
+        <v>-0.296328706854146</v>
       </c>
     </row>
     <row r="106">
@@ -6516,7 +6516,7 @@
         <v>323</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.612022782745422</v>
+        <v>-0.794994450041168</v>
       </c>
     </row>
     <row r="107">
@@ -6533,7 +6533,7 @@
         <v>326</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.0197279582887439</v>
+        <v>-0.153269617098205</v>
       </c>
     </row>
     <row r="108">
@@ -6550,7 +6550,7 @@
         <v>329</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0216570535237689</v>
+        <v>-0.129128643743577</v>
       </c>
     </row>
     <row r="109">
@@ -6567,7 +6567,7 @@
         <v>332</v>
       </c>
       <c r="E109" t="n">
-        <v>0.112527016557871</v>
+        <v>-0.0458130846663942</v>
       </c>
     </row>
     <row r="110">
@@ -6584,7 +6584,7 @@
         <v>335</v>
       </c>
       <c r="E110" t="n">
-        <v>0.00680782213100032</v>
+        <v>-0.170987804388782</v>
       </c>
     </row>
     <row r="111">
@@ -6601,7 +6601,7 @@
         <v>338</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.356733412018356</v>
+        <v>-0.524989519206928</v>
       </c>
     </row>
     <row r="112">
@@ -6618,7 +6618,7 @@
         <v>341</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.333143453384825</v>
+        <v>-0.49648683548573</v>
       </c>
     </row>
     <row r="113">
@@ -6635,7 +6635,7 @@
         <v>344</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.396995729348317</v>
+        <v>-0.564767398873438</v>
       </c>
     </row>
     <row r="114">
@@ -6652,7 +6652,7 @@
         <v>347</v>
       </c>
       <c r="E114" t="n">
-        <v>0.272689250096297</v>
+        <v>0.111465058694379</v>
       </c>
     </row>
     <row r="115">
@@ -6669,7 +6669,7 @@
         <v>350</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.211896607300367</v>
+        <v>-0.380857210809465</v>
       </c>
     </row>
     <row r="116">
@@ -6686,7 +6686,7 @@
         <v>353</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.40202278293064</v>
+        <v>-0.566778862590467</v>
       </c>
     </row>
     <row r="117">
@@ -6703,7 +6703,7 @@
         <v>356</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.694231731427265</v>
+        <v>-0.849598935275515</v>
       </c>
     </row>
     <row r="118">
@@ -6720,7 +6720,7 @@
         <v>359</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.106624338364853</v>
+        <v>-0.291076671912234</v>
       </c>
     </row>
     <row r="119">
@@ -6737,7 +6737,7 @@
         <v>362</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.709125263736844</v>
+        <v>-0.882173536368001</v>
       </c>
     </row>
     <row r="120">
@@ -6754,7 +6754,7 @@
         <v>365</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.0761609840487381</v>
+        <v>-0.2051860861124</v>
       </c>
     </row>
     <row r="121">
@@ -6771,7 +6771,7 @@
         <v>368</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0942633334718191</v>
+        <v>-0.0540162709404354</v>
       </c>
     </row>
     <row r="122">
@@ -6788,7 +6788,7 @@
         <v>371</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.0916113746594477</v>
+        <v>-0.218061336951734</v>
       </c>
     </row>
     <row r="123">
@@ -6805,7 +6805,7 @@
         <v>374</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.0343205281491023</v>
+        <v>-0.207148773651505</v>
       </c>
     </row>
     <row r="124">
@@ -6822,7 +6822,7 @@
         <v>377</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.167480467191953</v>
+        <v>-0.345595629087024</v>
       </c>
     </row>
     <row r="125">
@@ -6839,7 +6839,7 @@
         <v>380</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0178192441273563</v>
+        <v>-0.122199849657643</v>
       </c>
     </row>
     <row r="126">
@@ -6856,7 +6856,7 @@
         <v>383</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.646388466712091</v>
+        <v>-0.815377251171051</v>
       </c>
     </row>
     <row r="127">
@@ -6873,7 +6873,7 @@
         <v>386</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.196505187336946</v>
+        <v>-0.32537891316435</v>
       </c>
     </row>
     <row r="128">
@@ -6890,7 +6890,7 @@
         <v>389</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0372884601105434</v>
+        <v>-0.135460561094992</v>
       </c>
     </row>
     <row r="129">
@@ -6907,7 +6907,7 @@
         <v>392</v>
       </c>
       <c r="E129" t="n">
-        <v>0.151473224935493</v>
+        <v>0.0278832282603393</v>
       </c>
     </row>
     <row r="130">
@@ -6924,7 +6924,7 @@
         <v>395</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.166235252173342</v>
+        <v>-0.294231892295845</v>
       </c>
     </row>
     <row r="131">
@@ -6941,7 +6941,7 @@
         <v>398</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.124090414805997</v>
+        <v>-0.261047817639146</v>
       </c>
     </row>
     <row r="132">
@@ -6958,7 +6958,7 @@
         <v>401</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.178548575522825</v>
+        <v>-0.333459936420984</v>
       </c>
     </row>
     <row r="133">
@@ -6975,7 +6975,7 @@
         <v>404</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.0799038491290344</v>
+        <v>-0.236901851259056</v>
       </c>
     </row>
     <row r="134">
@@ -6992,7 +6992,7 @@
         <v>407</v>
       </c>
       <c r="E134" t="n">
-        <v>0.157795027605049</v>
+        <v>0.0182222528431707</v>
       </c>
     </row>
     <row r="135">
@@ -7009,7 +7009,7 @@
         <v>410</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.0613961922257141</v>
+        <v>-0.229561090277696</v>
       </c>
     </row>
     <row r="136">
@@ -7026,7 +7026,7 @@
         <v>413</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0730806300469148</v>
+        <v>-0.0969738745802188</v>
       </c>
     </row>
     <row r="137">
@@ -7043,7 +7043,7 @@
         <v>416</v>
       </c>
       <c r="E137" t="n">
-        <v>0.130797922611179</v>
+        <v>-0.0185045210755403</v>
       </c>
     </row>
     <row r="138">
@@ -7060,7 +7060,7 @@
         <v>419</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.11686495080192</v>
+        <v>-0.268722370487826</v>
       </c>
     </row>
     <row r="139">
@@ -7077,7 +7077,7 @@
         <v>422</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.272233799030798</v>
+        <v>-0.452233698550555</v>
       </c>
     </row>
     <row r="140">
@@ -7094,7 +7094,7 @@
         <v>425</v>
       </c>
       <c r="E140" t="n">
-        <v>0.159670938520021</v>
+        <v>0.0372779548309818</v>
       </c>
     </row>
     <row r="141">
@@ -7111,7 +7111,7 @@
         <v>428</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0289564165132924</v>
+        <v>-0.149285941139353</v>
       </c>
     </row>
     <row r="142">
@@ -7128,7 +7128,7 @@
         <v>431</v>
       </c>
       <c r="E142" t="n">
-        <v>0.175647377243643</v>
+        <v>0.0494787369414846</v>
       </c>
     </row>
     <row r="143">
@@ -7145,7 +7145,7 @@
         <v>435</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.672970367198511</v>
+        <v>-0.863163559542175</v>
       </c>
     </row>
     <row r="144">
@@ -7162,7 +7162,7 @@
         <v>438</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.468917193980137</v>
+        <v>-0.646766794307157</v>
       </c>
     </row>
     <row r="145">
@@ -7179,7 +7179,7 @@
         <v>441</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.23403442974951</v>
+        <v>-1.43106209214735</v>
       </c>
     </row>
     <row r="146">
@@ -7196,7 +7196,7 @@
         <v>444</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.398961344327218</v>
+        <v>-0.583178402206388</v>
       </c>
     </row>
     <row r="147">
@@ -7213,7 +7213,7 @@
         <v>447</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.603117806584009</v>
+        <v>-0.814240852989477</v>
       </c>
     </row>
     <row r="148">
@@ -7230,7 +7230,7 @@
         <v>450</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.366746478513513</v>
+        <v>-0.501369350827491</v>
       </c>
     </row>
     <row r="149">
@@ -7247,7 +7247,7 @@
         <v>453</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.13397592540645</v>
+        <v>-1.34529258381323</v>
       </c>
     </row>
     <row r="150">
@@ -7264,7 +7264,7 @@
         <v>456</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.51072496768043</v>
+        <v>-0.710098144314108</v>
       </c>
     </row>
     <row r="151">
@@ -7281,7 +7281,7 @@
         <v>458</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.666351337095505</v>
+        <v>-0.851421180086897</v>
       </c>
     </row>
     <row r="152">
@@ -7298,7 +7298,7 @@
         <v>461</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.620090049322785</v>
+        <v>-0.824171769676339</v>
       </c>
     </row>
     <row r="153">
@@ -7315,7 +7315,7 @@
         <v>464</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.363165722112348</v>
+        <v>-0.57849064278614</v>
       </c>
     </row>
     <row r="154">
@@ -7332,7 +7332,7 @@
         <v>467</v>
       </c>
       <c r="E154" t="n">
-        <v>0.259920638325477</v>
+        <v>0.0954344392366083</v>
       </c>
     </row>
     <row r="155">
@@ -7349,7 +7349,7 @@
         <v>470</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.302215896360144</v>
+        <v>-0.478683759142701</v>
       </c>
     </row>
     <row r="156">
@@ -7366,7 +7366,7 @@
         <v>472</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.336871701384566</v>
+        <v>-0.518273807664033</v>
       </c>
     </row>
     <row r="157">
@@ -7383,7 +7383,7 @@
         <v>476</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.109792943293443</v>
+        <v>-0.288154946989323</v>
       </c>
     </row>
     <row r="158">
@@ -7400,7 +7400,7 @@
         <v>479</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.246480598620329</v>
+        <v>-0.425819492295454</v>
       </c>
     </row>
     <row r="159">
@@ -7417,7 +7417,7 @@
         <v>482</v>
       </c>
       <c r="E159" t="n">
-        <v>0.0298758537277461</v>
+        <v>-0.15944078579459</v>
       </c>
     </row>
     <row r="160">
@@ -7434,7 +7434,7 @@
         <v>485</v>
       </c>
       <c r="E160" t="n">
-        <v>0.00365067864727652</v>
+        <v>-0.183930863266234</v>
       </c>
     </row>
     <row r="161">
@@ -7451,7 +7451,7 @@
         <v>488</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.308955434773926</v>
+        <v>-0.504400988029718</v>
       </c>
     </row>
     <row r="162">
@@ -7468,7 +7468,7 @@
         <v>490</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.326232608779734</v>
+        <v>-0.510918051212897</v>
       </c>
     </row>
     <row r="163">
@@ -7485,7 +7485,7 @@
         <v>493</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.366344788589486</v>
+        <v>-0.546032530999875</v>
       </c>
     </row>
     <row r="164">
@@ -7502,7 +7502,7 @@
         <v>496</v>
       </c>
       <c r="E164" t="n">
-        <v>0.144099516568419</v>
+        <v>-0.0554256007999136</v>
       </c>
     </row>
     <row r="165">
@@ -7519,7 +7519,7 @@
         <v>500</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.169501056879852</v>
+        <v>-0.299797250047082</v>
       </c>
     </row>
     <row r="166">
@@ -7536,7 +7536,7 @@
         <v>504</v>
       </c>
       <c r="E166" t="n">
-        <v>0.118579724703307</v>
+        <v>-0.0717013384299998</v>
       </c>
     </row>
     <row r="167">
@@ -7553,7 +7553,7 @@
         <v>507</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0773069756029934</v>
+        <v>-0.127296269648367</v>
       </c>
     </row>
     <row r="168">
@@ -7570,7 +7570,7 @@
         <v>510</v>
       </c>
       <c r="E168" t="n">
-        <v>0.163945567948954</v>
+        <v>-0.0530054931990098</v>
       </c>
     </row>
     <row r="169">
@@ -7587,7 +7587,7 @@
         <v>513</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.0511009372414453</v>
+        <v>-0.250970879680331</v>
       </c>
     </row>
     <row r="170">
@@ -7604,7 +7604,7 @@
         <v>516</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.123212914707153</v>
+        <v>-0.288270084917584</v>
       </c>
     </row>
     <row r="171">
@@ -7621,7 +7621,7 @@
         <v>519</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.027489975218008</v>
+        <v>-0.197551944972685</v>
       </c>
     </row>
     <row r="172">
@@ -7638,7 +7638,7 @@
         <v>522</v>
       </c>
       <c r="E172" t="n">
-        <v>0.282989793413759</v>
+        <v>0.0876223659074264</v>
       </c>
     </row>
     <row r="173">
@@ -7655,7 +7655,7 @@
         <v>525</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.0876558974213364</v>
+        <v>-0.313317959114935</v>
       </c>
     </row>
     <row r="174">
@@ -7672,7 +7672,7 @@
         <v>528</v>
       </c>
       <c r="E174" t="n">
-        <v>0.236954824090945</v>
+        <v>0.0314141203795076</v>
       </c>
     </row>
     <row r="175">
@@ -7689,7 +7689,7 @@
         <v>531</v>
       </c>
       <c r="E175" t="n">
-        <v>-0.689754880063236</v>
+        <v>-0.865837220733258</v>
       </c>
     </row>
     <row r="176">
@@ -7706,7 +7706,7 @@
         <v>534</v>
       </c>
       <c r="E176" t="n">
-        <v>0.207453780646182</v>
+        <v>0.0216352014463174</v>
       </c>
     </row>
     <row r="177">
@@ -7723,7 +7723,7 @@
         <v>537</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0418022519272023</v>
+        <v>-0.124724842144641</v>
       </c>
     </row>
     <row r="178">
@@ -7740,7 +7740,7 @@
         <v>540</v>
       </c>
       <c r="E178" t="n">
-        <v>0.307519242392384</v>
+        <v>0.121844544381867</v>
       </c>
     </row>
     <row r="179">
@@ -7757,7 +7757,7 @@
         <v>543</v>
       </c>
       <c r="E179" t="n">
-        <v>0.12483644904289</v>
+        <v>-0.100358271095726</v>
       </c>
     </row>
     <row r="180">
@@ -7774,7 +7774,7 @@
         <v>546</v>
       </c>
       <c r="E180" t="n">
-        <v>0.344212328296046</v>
+        <v>0.152851722338506</v>
       </c>
     </row>
     <row r="181">
@@ -7791,7 +7791,7 @@
         <v>549</v>
       </c>
       <c r="E181" t="n">
-        <v>0.165909787437839</v>
+        <v>-0.0679170191298893</v>
       </c>
     </row>
     <row r="182">
@@ -7808,7 +7808,7 @@
         <v>552</v>
       </c>
       <c r="E182" t="n">
-        <v>0.523646751713018</v>
+        <v>0.352402211955449</v>
       </c>
     </row>
     <row r="183">
@@ -7825,7 +7825,7 @@
         <v>555</v>
       </c>
       <c r="E183" t="n">
-        <v>0.356606716164277</v>
+        <v>0.200263054680532</v>
       </c>
     </row>
     <row r="184">
@@ -7842,7 +7842,7 @@
         <v>558</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0790824778015403</v>
+        <v>-0.0939892576440131</v>
       </c>
     </row>
     <row r="185">
@@ -7859,7 +7859,7 @@
         <v>561</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.181316720509853</v>
+        <v>-0.326942021152158</v>
       </c>
     </row>
     <row r="186">
@@ -7876,7 +7876,7 @@
         <v>564</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.240124876887371</v>
+        <v>-0.486563437917498</v>
       </c>
     </row>
     <row r="187">
@@ -7893,7 +7893,7 @@
         <v>567</v>
       </c>
       <c r="E187" t="n">
-        <v>0.199881702516556</v>
+        <v>-0.0410135622839842</v>
       </c>
     </row>
     <row r="188">
@@ -7910,7 +7910,7 @@
         <v>570</v>
       </c>
       <c r="E188" t="n">
-        <v>0.191245807412086</v>
+        <v>0.0248417007643887</v>
       </c>
     </row>
     <row r="189">
@@ -7927,7 +7927,7 @@
         <v>573</v>
       </c>
       <c r="E189" t="n">
-        <v>0.167903658099081</v>
+        <v>0.000464523481905965</v>
       </c>
     </row>
     <row r="190">
@@ -7944,7 +7944,7 @@
         <v>576</v>
       </c>
       <c r="E190" t="n">
-        <v>0.508086019748695</v>
+        <v>0.299721509819116</v>
       </c>
     </row>
     <row r="191">
@@ -7961,7 +7961,7 @@
         <v>579</v>
       </c>
       <c r="E191" t="n">
-        <v>0.307898072893769</v>
+        <v>0.101351509856507</v>
       </c>
     </row>
     <row r="192">
@@ -7978,7 +7978,7 @@
         <v>582</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0349894702039229</v>
+        <v>-0.173855105920488</v>
       </c>
     </row>
     <row r="193">
@@ -7995,7 +7995,7 @@
         <v>585</v>
       </c>
       <c r="E193" t="n">
-        <v>0.219877399359486</v>
+        <v>0.0661988714505627</v>
       </c>
     </row>
     <row r="194">
@@ -8012,7 +8012,7 @@
         <v>588</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.481996861268876</v>
+        <v>-0.63162867179225</v>
       </c>
     </row>
     <row r="195">
@@ -8029,7 +8029,7 @@
         <v>591</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0240059256156884</v>
+        <v>-0.134067471275794</v>
       </c>
     </row>
     <row r="196">
@@ -8046,7 +8046,7 @@
         <v>594</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0868573084425528</v>
+        <v>-0.10663100672252</v>
       </c>
     </row>
     <row r="197">
@@ -8063,7 +8063,7 @@
         <v>598</v>
       </c>
       <c r="E197" t="n">
-        <v>0.449906557466223</v>
+        <v>0.276651378536349</v>
       </c>
     </row>
     <row r="198">
@@ -8080,7 +8080,7 @@
         <v>601</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.509967790688643</v>
+        <v>-0.659951028627694</v>
       </c>
     </row>
     <row r="199">
@@ -8097,7 +8097,7 @@
         <v>604</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.140143013617144</v>
+        <v>-0.292356996046567</v>
       </c>
     </row>
     <row r="200">
@@ -8114,7 +8114,7 @@
         <v>607</v>
       </c>
       <c r="E200" t="n">
-        <v>0.256893474007492</v>
+        <v>0.0832245244409204</v>
       </c>
     </row>
     <row r="201">
@@ -8131,7 +8131,7 @@
         <v>610</v>
       </c>
       <c r="E201" t="n">
-        <v>0.151706991819735</v>
+        <v>-0.0201821073660596</v>
       </c>
     </row>
     <row r="202">
@@ -8148,7 +8148,7 @@
         <v>613</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.147413835974156</v>
+        <v>-0.285704368520082</v>
       </c>
     </row>
     <row r="203">
@@ -8165,7 +8165,7 @@
         <v>616</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.139613221996565</v>
+        <v>-0.283653988225768</v>
       </c>
     </row>
     <row r="204">
@@ -8182,7 +8182,7 @@
         <v>619</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.220827610930724</v>
+        <v>-0.353699265446259</v>
       </c>
     </row>
     <row r="205">
@@ -8199,7 +8199,7 @@
         <v>622</v>
       </c>
       <c r="E205" t="n">
-        <v>0.105939018621514</v>
+        <v>-0.0566082598391234</v>
       </c>
     </row>
     <row r="206">
@@ -8216,7 +8216,7 @@
         <v>625</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.07896099404526</v>
+        <v>-0.283000047365878</v>
       </c>
     </row>
     <row r="207">
@@ -8233,7 +8233,7 @@
         <v>629</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.701586936986432</v>
+        <v>-0.934622815587294</v>
       </c>
     </row>
     <row r="208">
@@ -8250,7 +8250,7 @@
         <v>632</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.437545987194609</v>
+        <v>-0.653688280692978</v>
       </c>
     </row>
     <row r="209">
@@ -8267,7 +8267,7 @@
         <v>636</v>
       </c>
       <c r="E209" t="n">
-        <v>0.134571776901392</v>
+        <v>-0.0214742114881284</v>
       </c>
     </row>
     <row r="210">
@@ -8284,7 +8284,7 @@
         <v>638</v>
       </c>
       <c r="E210" t="n">
-        <v>-0.361429862954466</v>
+        <v>-0.558989903628003</v>
       </c>
     </row>
     <row r="211">
@@ -8301,7 +8301,7 @@
         <v>641</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.655327168538318</v>
+        <v>-0.89257542949335</v>
       </c>
     </row>
     <row r="212">
@@ -8318,7 +8318,7 @@
         <v>644</v>
       </c>
       <c r="E212" t="n">
-        <v>-0.660795245301562</v>
+        <v>-0.842329858480805</v>
       </c>
     </row>
     <row r="213">
@@ -8335,7 +8335,7 @@
         <v>647</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.754167752988719</v>
+        <v>-0.951985592043716</v>
       </c>
     </row>
     <row r="214">
@@ -8352,7 +8352,7 @@
         <v>650</v>
       </c>
       <c r="E214" t="n">
-        <v>0.00535153268435058</v>
+        <v>-0.152979648572826</v>
       </c>
     </row>
     <row r="215">
@@ -8369,7 +8369,7 @@
         <v>653</v>
       </c>
       <c r="E215" t="n">
-        <v>0.130631968644088</v>
+        <v>-0.0863683678327334</v>
       </c>
     </row>
     <row r="216">
@@ -8386,7 +8386,7 @@
         <v>656</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.304440413581419</v>
+        <v>-0.506457705537996</v>
       </c>
     </row>
     <row r="217">
@@ -8403,7 +8403,7 @@
         <v>659</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.136687684305603</v>
+        <v>-0.275711656704722</v>
       </c>
     </row>
     <row r="218">
@@ -8420,7 +8420,7 @@
         <v>662</v>
       </c>
       <c r="E218" t="n">
-        <v>-0.603736616184084</v>
+        <v>-0.814440873641822</v>
       </c>
     </row>
     <row r="219">
@@ -8437,7 +8437,7 @@
         <v>665</v>
       </c>
       <c r="E219" t="n">
-        <v>-0.778946729515441</v>
+        <v>-0.974961030119286</v>
       </c>
     </row>
     <row r="220">
@@ -8454,7 +8454,7 @@
         <v>668</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.147718496148888</v>
+        <v>-0.302307939525895</v>
       </c>
     </row>
     <row r="221">
@@ -8471,7 +8471,7 @@
         <v>670</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0472439853420662</v>
+        <v>-0.158918513852678</v>
       </c>
     </row>
     <row r="222">
@@ -8488,7 +8488,7 @@
         <v>673</v>
       </c>
       <c r="E222" t="n">
-        <v>0.164633431369837</v>
+        <v>-0.0495285339152182</v>
       </c>
     </row>
     <row r="223">
@@ -8505,7 +8505,7 @@
         <v>676</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.0872717715821042</v>
+        <v>-0.23297918423301</v>
       </c>
     </row>
     <row r="224">
@@ -8522,7 +8522,7 @@
         <v>679</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.195958774183138</v>
+        <v>-0.413802648441816</v>
       </c>
     </row>
     <row r="225">
@@ -8539,7 +8539,7 @@
         <v>682</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.295497847891172</v>
+        <v>-0.526741752497838</v>
       </c>
     </row>
     <row r="226">
@@ -8556,7 +8556,7 @@
         <v>685</v>
       </c>
       <c r="E226" t="n">
-        <v>-1.091632947449</v>
+        <v>-1.28728055891321</v>
       </c>
     </row>
     <row r="227">
@@ -8573,7 +8573,7 @@
         <v>688</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.715574265448903</v>
+        <v>-0.914058156358128</v>
       </c>
     </row>
     <row r="228">
@@ -8590,7 +8590,7 @@
         <v>691</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.068562839042427</v>
+        <v>-0.297205269911785</v>
       </c>
     </row>
     <row r="229">
@@ -8607,7 +8607,7 @@
         <v>694</v>
       </c>
       <c r="E229" t="n">
-        <v>-1.00402114533798</v>
+        <v>-1.19913067469466</v>
       </c>
     </row>
     <row r="230">
@@ -8624,7 +8624,7 @@
         <v>697</v>
       </c>
       <c r="E230" t="n">
-        <v>-0.344906673623262</v>
+        <v>-0.566221409107482</v>
       </c>
     </row>
     <row r="231">
@@ -8641,7 +8641,7 @@
         <v>700</v>
       </c>
       <c r="E231" t="n">
-        <v>0.141222879557445</v>
+        <v>-0.0522410352849877</v>
       </c>
     </row>
     <row r="232">
@@ -8658,7 +8658,7 @@
         <v>703</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.0444082220347431</v>
+        <v>-0.222583822200787</v>
       </c>
     </row>
     <row r="233">
@@ -8675,7 +8675,7 @@
         <v>706</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.274717563413181</v>
+        <v>-0.495032311978696</v>
       </c>
     </row>
     <row r="234">
@@ -8692,7 +8692,7 @@
         <v>709</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.561312839910315</v>
+        <v>-0.7877188548849</v>
       </c>
     </row>
     <row r="235">
@@ -8709,7 +8709,7 @@
         <v>712</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.0537297354317098</v>
+        <v>-0.273773849001596</v>
       </c>
     </row>
     <row r="236">
@@ -8726,7 +8726,7 @@
         <v>716</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.694530701073291</v>
+        <v>-0.909567317768101</v>
       </c>
     </row>
     <row r="237">
@@ -8743,7 +8743,7 @@
         <v>719</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.426490157613338</v>
+        <v>-0.679124234158774</v>
       </c>
     </row>
     <row r="238">
@@ -8760,7 +8760,7 @@
         <v>722</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.550709191285897</v>
+        <v>-0.79825483162983</v>
       </c>
     </row>
     <row r="239">
@@ -8777,7 +8777,7 @@
         <v>725</v>
       </c>
       <c r="E239" t="n">
-        <v>-1.10171640187617</v>
+        <v>-1.29840057100932</v>
       </c>
     </row>
     <row r="240">
@@ -8794,7 +8794,7 @@
         <v>31</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.216674545411845</v>
+        <v>-0.432349970063967</v>
       </c>
     </row>
     <row r="241">
@@ -8811,7 +8811,7 @@
         <v>730</v>
       </c>
       <c r="E241" t="n">
-        <v>-0.243237966133276</v>
+        <v>-0.467592166171733</v>
       </c>
     </row>
     <row r="242">
@@ -8828,7 +8828,7 @@
         <v>734</v>
       </c>
       <c r="E242" t="n">
-        <v>0.126638516870976</v>
+        <v>-0.0540919023715681</v>
       </c>
     </row>
     <row r="243">
@@ -8845,7 +8845,7 @@
         <v>737</v>
       </c>
       <c r="E243" t="n">
-        <v>-1.0142694122493</v>
+        <v>-1.21012298700552</v>
       </c>
     </row>
     <row r="244">
@@ -8862,7 +8862,7 @@
         <v>740</v>
       </c>
       <c r="E244" t="n">
-        <v>-0.961420013689298</v>
+        <v>-1.15958230191196</v>
       </c>
     </row>
     <row r="245">
@@ -8879,7 +8879,7 @@
         <v>743</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.716154647082477</v>
+        <v>-0.915012639738296</v>
       </c>
     </row>
     <row r="246">
@@ -8896,7 +8896,7 @@
         <v>746</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.206629599717987</v>
+        <v>-0.434038108963263</v>
       </c>
     </row>
     <row r="247">
@@ -8913,7 +8913,7 @@
         <v>749</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.291851896486882</v>
+        <v>-0.510789761862987</v>
       </c>
     </row>
     <row r="248">
@@ -8930,7 +8930,7 @@
         <v>753</v>
       </c>
       <c r="E248" t="n">
-        <v>-0.382946807037336</v>
+        <v>-0.591219545940246</v>
       </c>
     </row>
     <row r="249">
@@ -8947,7 +8947,7 @@
         <v>756</v>
       </c>
       <c r="E249" t="n">
-        <v>-0.0651353784343835</v>
+        <v>-0.288080057116412</v>
       </c>
     </row>
     <row r="250">
@@ -8964,7 +8964,7 @@
         <v>760</v>
       </c>
       <c r="E250" t="n">
-        <v>0.0713943506414092</v>
+        <v>-0.10018498038795</v>
       </c>
     </row>
     <row r="251">
@@ -8981,7 +8981,7 @@
         <v>763</v>
       </c>
       <c r="E251" t="n">
-        <v>0.235379156705938</v>
+        <v>0.0590296518419496</v>
       </c>
     </row>
     <row r="252">
@@ -8998,7 +8998,7 @@
         <v>765</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.13457701689923</v>
+        <v>-0.342349730177928</v>
       </c>
     </row>
     <row r="253">
@@ -9015,7 +9015,7 @@
         <v>768</v>
       </c>
       <c r="E253" t="n">
-        <v>0.313889620495432</v>
+        <v>0.103956031850196</v>
       </c>
     </row>
     <row r="254">
@@ -9032,7 +9032,7 @@
         <v>771</v>
       </c>
       <c r="E254" t="n">
-        <v>0.281246660278525</v>
+        <v>0.11045159221005</v>
       </c>
     </row>
     <row r="255">
@@ -9049,7 +9049,7 @@
         <v>774</v>
       </c>
       <c r="E255" t="n">
-        <v>0.3694168506549</v>
+        <v>0.178635123508759</v>
       </c>
     </row>
     <row r="256">
@@ -9066,7 +9066,7 @@
         <v>778</v>
       </c>
       <c r="E256" t="n">
-        <v>-0.791642275063539</v>
+        <v>-1.01639586471639</v>
       </c>
     </row>
     <row r="257">
@@ -9083,7 +9083,7 @@
         <v>782</v>
       </c>
       <c r="E257" t="n">
-        <v>0.2692092575699</v>
+        <v>0.101022263450793</v>
       </c>
     </row>
     <row r="258">
@@ -9100,7 +9100,7 @@
         <v>786</v>
       </c>
       <c r="E258" t="n">
-        <v>-0.346354741543311</v>
+        <v>-0.484115345114517</v>
       </c>
     </row>
     <row r="259">
@@ -9117,7 +9117,7 @@
         <v>789</v>
       </c>
       <c r="E259" t="n">
-        <v>-0.337892119815878</v>
+        <v>-0.503608307383981</v>
       </c>
     </row>
     <row r="260">
@@ -9134,7 +9134,7 @@
         <v>792</v>
       </c>
       <c r="E260" t="n">
-        <v>-1.09388881741455</v>
+        <v>-1.29314943902809</v>
       </c>
     </row>
     <row r="261">
@@ -9151,7 +9151,7 @@
         <v>795</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.066304004838463</v>
+        <v>-0.286035573331905</v>
       </c>
     </row>
     <row r="262">
@@ -9168,7 +9168,7 @@
         <v>798</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.54527347188309</v>
+        <v>-0.779646860973501</v>
       </c>
     </row>
     <row r="263">
@@ -9185,7 +9185,7 @@
         <v>801</v>
       </c>
       <c r="E263" t="n">
-        <v>-0.132796894836051</v>
+        <v>-0.336822580659568</v>
       </c>
     </row>
     <row r="264">
@@ -9202,7 +9202,7 @@
         <v>804</v>
       </c>
       <c r="E264" t="n">
-        <v>-0.11108259680232</v>
+        <v>-0.299200637657348</v>
       </c>
     </row>
     <row r="265">
@@ -9219,7 +9219,7 @@
         <v>807</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.550811182387228</v>
+        <v>-0.751362635717454</v>
       </c>
     </row>
     <row r="266">
@@ -9236,7 +9236,7 @@
         <v>810</v>
       </c>
       <c r="E266" t="n">
-        <v>-0.702973934469894</v>
+        <v>-0.903448782368175</v>
       </c>
     </row>
     <row r="267">
@@ -9253,7 +9253,7 @@
         <v>813</v>
       </c>
       <c r="E267" t="n">
-        <v>-1.18489711180886</v>
+        <v>-1.39126850888201</v>
       </c>
     </row>
     <row r="268">
@@ -9270,7 +9270,7 @@
         <v>815</v>
       </c>
       <c r="E268" t="n">
-        <v>0.164496377017261</v>
+        <v>0.00167864661680991</v>
       </c>
     </row>
     <row r="269">
@@ -9287,7 +9287,7 @@
         <v>818</v>
       </c>
       <c r="E269" t="n">
-        <v>-0.445333787080873</v>
+        <v>-0.645265668085255</v>
       </c>
     </row>
     <row r="270">
@@ -9304,7 +9304,7 @@
         <v>822</v>
       </c>
       <c r="E270" t="n">
-        <v>-1.09563484140296</v>
+        <v>-1.28449034091607</v>
       </c>
     </row>
     <row r="271">
@@ -9321,7 +9321,7 @@
         <v>825</v>
       </c>
       <c r="E271" t="n">
-        <v>-0.399670722998169</v>
+        <v>-0.595109027678955</v>
       </c>
     </row>
     <row r="272">
@@ -9338,7 +9338,7 @@
         <v>828</v>
       </c>
       <c r="E272" t="n">
-        <v>0.624737080346024</v>
+        <v>0.423635043411233</v>
       </c>
     </row>
     <row r="273">
@@ -9355,7 +9355,7 @@
         <v>831</v>
       </c>
       <c r="E273" t="n">
-        <v>-0.366345795828203</v>
+        <v>-0.56498427211373</v>
       </c>
     </row>
     <row r="274">
@@ -9372,7 +9372,7 @@
         <v>834</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.559303174085072</v>
+        <v>-0.769463779713014</v>
       </c>
     </row>
     <row r="275">
@@ -9389,7 +9389,7 @@
         <v>837</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.632380354799486</v>
+        <v>-0.827419666681172</v>
       </c>
     </row>
     <row r="276">
@@ -9406,7 +9406,7 @@
         <v>840</v>
       </c>
       <c r="E276" t="n">
-        <v>-0.210012915610671</v>
+        <v>-0.373428366050351</v>
       </c>
     </row>
     <row r="277">
@@ -9423,7 +9423,7 @@
         <v>843</v>
       </c>
       <c r="E277" t="n">
-        <v>0.125470052405159</v>
+        <v>-0.0458060044056753</v>
       </c>
     </row>
     <row r="278">
@@ -9440,7 +9440,7 @@
         <v>846</v>
       </c>
       <c r="E278" t="n">
-        <v>-0.530965788365025</v>
+        <v>-0.728288919653789</v>
       </c>
     </row>
     <row r="279">
@@ -9457,7 +9457,7 @@
         <v>849</v>
       </c>
       <c r="E279" t="n">
-        <v>0.126589015182161</v>
+        <v>-0.0691952707416918</v>
       </c>
     </row>
     <row r="280">
@@ -9474,7 +9474,7 @@
         <v>852</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.479502536117828</v>
+        <v>-0.735190960598738</v>
       </c>
     </row>
     <row r="281">
@@ -9491,7 +9491,7 @@
         <v>855</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.662623567543187</v>
+        <v>-0.857850455406327</v>
       </c>
     </row>
     <row r="282">
@@ -9508,7 +9508,7 @@
         <v>858</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.223437556630476</v>
+        <v>-0.485639026848645</v>
       </c>
     </row>
     <row r="283">
@@ -9525,7 +9525,7 @@
         <v>861</v>
       </c>
       <c r="E283" t="n">
-        <v>0.155112350144695</v>
+        <v>-0.0181623097140761</v>
       </c>
     </row>
     <row r="284">
@@ -9542,7 +9542,7 @@
         <v>864</v>
       </c>
       <c r="E284" t="n">
-        <v>-0.335498276626112</v>
+        <v>-0.542589139229182</v>
       </c>
     </row>
     <row r="285">
@@ -9559,7 +9559,7 @@
         <v>867</v>
       </c>
       <c r="E285" t="n">
-        <v>-0.126873026061387</v>
+        <v>-0.309184130734109</v>
       </c>
     </row>
     <row r="286">
@@ -9576,7 +9576,7 @@
         <v>870</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.291314264986131</v>
+        <v>-0.464079369198175</v>
       </c>
     </row>
     <row r="287">
@@ -9593,7 +9593,7 @@
         <v>873</v>
       </c>
       <c r="E287" t="n">
-        <v>-0.739199487241744</v>
+        <v>-0.969957530504198</v>
       </c>
     </row>
     <row r="288">
@@ -9610,7 +9610,7 @@
         <v>876</v>
       </c>
       <c r="E288" t="n">
-        <v>-0.797218826959552</v>
+        <v>-0.982159328354302</v>
       </c>
     </row>
     <row r="289">
@@ -9627,7 +9627,7 @@
         <v>879</v>
       </c>
       <c r="E289" t="n">
-        <v>-0.449260155550861</v>
+        <v>-0.625883095155437</v>
       </c>
     </row>
     <row r="290">
@@ -9644,7 +9644,7 @@
         <v>882</v>
       </c>
       <c r="E290" t="n">
-        <v>-0.756874211943582</v>
+        <v>-0.95406773363262</v>
       </c>
     </row>
     <row r="291">
@@ -9661,7 +9661,7 @@
         <v>885</v>
       </c>
       <c r="E291" t="n">
-        <v>-0.538508356526462</v>
+        <v>-0.720778088705787</v>
       </c>
     </row>
     <row r="292">
@@ -9678,7 +9678,7 @@
         <v>889</v>
       </c>
       <c r="E292" t="n">
-        <v>0.124604654291149</v>
+        <v>-0.053102887216302</v>
       </c>
     </row>
     <row r="293">
@@ -9695,7 +9695,7 @@
         <v>892</v>
       </c>
       <c r="E293" t="n">
-        <v>0.392819683109755</v>
+        <v>0.210919923750276</v>
       </c>
     </row>
     <row r="294">
@@ -9712,7 +9712,7 @@
         <v>896</v>
       </c>
       <c r="E294" t="n">
-        <v>-1.0117749801311</v>
+        <v>-1.2085668912129</v>
       </c>
     </row>
     <row r="295">
@@ -9729,7 +9729,7 @@
         <v>899</v>
       </c>
       <c r="E295" t="n">
-        <v>0.0213914479304333</v>
+        <v>-0.157636087027032</v>
       </c>
     </row>
     <row r="296">
@@ -9746,7 +9746,7 @@
         <v>901</v>
       </c>
       <c r="E296" t="n">
-        <v>-0.04428433400965</v>
+        <v>-0.21637890127915</v>
       </c>
     </row>
     <row r="297">
@@ -9763,7 +9763,7 @@
         <v>904</v>
       </c>
       <c r="E297" t="n">
-        <v>-0.107589670330003</v>
+        <v>-0.268879348390501</v>
       </c>
     </row>
     <row r="298">
@@ -9780,7 +9780,7 @@
         <v>907</v>
       </c>
       <c r="E298" t="n">
-        <v>-0.918749795318738</v>
+        <v>-1.13220572822406</v>
       </c>
     </row>
     <row r="299">
@@ -9797,7 +9797,7 @@
         <v>910</v>
       </c>
       <c r="E299" t="n">
-        <v>-0.187797265620189</v>
+        <v>-0.410409060817622</v>
       </c>
     </row>
     <row r="300">
@@ -9814,7 +9814,7 @@
         <v>913</v>
       </c>
       <c r="E300" t="n">
-        <v>0.085441842125047</v>
+        <v>-0.0898400173528337</v>
       </c>
     </row>
     <row r="301">
@@ -9831,7 +9831,7 @@
         <v>915</v>
       </c>
       <c r="E301" t="n">
-        <v>-0.410673017204879</v>
+        <v>-0.627362983298862</v>
       </c>
     </row>
     <row r="302">
@@ -9848,7 +9848,7 @@
         <v>919</v>
       </c>
       <c r="E302" t="n">
-        <v>-0.465886590995784</v>
+        <v>-0.693593317992171</v>
       </c>
     </row>
     <row r="303">
@@ -9865,7 +9865,7 @@
         <v>922</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.963670268424025</v>
+        <v>-1.15930893704174</v>
       </c>
     </row>
     <row r="304">
@@ -9882,7 +9882,7 @@
         <v>926</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.710492917415475</v>
+        <v>-0.917395416508158</v>
       </c>
     </row>
     <row r="305">
@@ -9899,7 +9899,7 @@
         <v>929</v>
       </c>
       <c r="E305" t="n">
-        <v>-0.449017615844466</v>
+        <v>-0.660979986045628</v>
       </c>
     </row>
     <row r="306">
@@ -9916,7 +9916,7 @@
         <v>933</v>
       </c>
       <c r="E306" t="n">
-        <v>0.157239255541297</v>
+        <v>0.00645532315532852</v>
       </c>
     </row>
     <row r="307">
@@ -9933,7 +9933,7 @@
         <v>936</v>
       </c>
       <c r="E307" t="n">
-        <v>0.109234308918641</v>
+        <v>-0.0448613861909416</v>
       </c>
     </row>
     <row r="308">
@@ -9950,7 +9950,7 @@
         <v>939</v>
       </c>
       <c r="E308" t="n">
-        <v>0.0000999715898447424</v>
+        <v>-0.136504882386784</v>
       </c>
     </row>
     <row r="309">
@@ -9967,7 +9967,7 @@
         <v>942</v>
       </c>
       <c r="E309" t="n">
-        <v>-0.154871827965981</v>
+        <v>-0.305421362759863</v>
       </c>
     </row>
     <row r="310">
@@ -9984,7 +9984,7 @@
         <v>945</v>
       </c>
       <c r="E310" t="n">
-        <v>0.0284373095475018</v>
+        <v>-0.123101864221118</v>
       </c>
     </row>
     <row r="311">
@@ -10001,7 +10001,7 @@
         <v>949</v>
       </c>
       <c r="E311" t="n">
-        <v>-0.638006673201218</v>
+        <v>-0.886126204448443</v>
       </c>
     </row>
     <row r="312">
@@ -10018,7 +10018,7 @@
         <v>953</v>
       </c>
       <c r="E312" t="n">
-        <v>0.174371642503016</v>
+        <v>-0.0338391564569364</v>
       </c>
     </row>
     <row r="313">
@@ -10035,7 +10035,7 @@
         <v>956</v>
       </c>
       <c r="E313" t="n">
-        <v>0.0662329587375015</v>
+        <v>-0.082836335987569</v>
       </c>
     </row>
     <row r="314">
@@ -10052,7 +10052,7 @@
         <v>959</v>
       </c>
       <c r="E314" t="n">
-        <v>0.21232319942142</v>
+        <v>0.0525107987324731</v>
       </c>
     </row>
     <row r="315">
@@ -10069,7 +10069,7 @@
         <v>962</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.16844832309886</v>
+        <v>-0.312146205139197</v>
       </c>
     </row>
     <row r="316">
@@ -10086,7 +10086,7 @@
         <v>965</v>
       </c>
       <c r="E316" t="n">
-        <v>0.29626107895942</v>
+        <v>0.128509162798702</v>
       </c>
     </row>
     <row r="317">
@@ -10103,7 +10103,7 @@
         <v>968</v>
       </c>
       <c r="E317" t="n">
-        <v>0.0460566335056937</v>
+        <v>-0.119575101811386</v>
       </c>
     </row>
     <row r="318">
@@ -10120,7 +10120,7 @@
         <v>971</v>
       </c>
       <c r="E318" t="n">
-        <v>0.224932242932142</v>
+        <v>0.0567022293727273</v>
       </c>
     </row>
     <row r="319">
@@ -10137,7 +10137,7 @@
         <v>974</v>
       </c>
       <c r="E319" t="n">
-        <v>0.195035010631634</v>
+        <v>-0.0227187680097397</v>
       </c>
     </row>
     <row r="320">
@@ -10154,7 +10154,7 @@
         <v>976</v>
       </c>
       <c r="E320" t="n">
-        <v>0.0519044680445608</v>
+        <v>-0.120450235659728</v>
       </c>
     </row>
     <row r="321">
@@ -10171,7 +10171,7 @@
         <v>980</v>
       </c>
       <c r="E321" t="n">
-        <v>0.122605536796018</v>
+        <v>-0.0216997785043821</v>
       </c>
     </row>
     <row r="322">
@@ -10188,7 +10188,7 @@
         <v>983</v>
       </c>
       <c r="E322" t="n">
-        <v>0.139480665811117</v>
+        <v>-0.0118734315670459</v>
       </c>
     </row>
     <row r="323">
@@ -10205,7 +10205,7 @@
         <v>986</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.263731029867762</v>
+        <v>-0.476658946278057</v>
       </c>
     </row>
     <row r="324">
@@ -10222,7 +10222,7 @@
         <v>989</v>
       </c>
       <c r="E324" t="n">
-        <v>0.129020488222578</v>
+        <v>-0.039896045955287</v>
       </c>
     </row>
     <row r="325">
@@ -10239,7 +10239,7 @@
         <v>992</v>
       </c>
       <c r="E325" t="n">
-        <v>-0.549042133230045</v>
+        <v>-0.734193874432819</v>
       </c>
     </row>
     <row r="326">
@@ -10256,7 +10256,7 @@
         <v>995</v>
       </c>
       <c r="E326" t="n">
-        <v>-0.293453201985455</v>
+        <v>-0.510765695333289</v>
       </c>
     </row>
     <row r="327">
@@ -10273,7 +10273,7 @@
         <v>998</v>
       </c>
       <c r="E327" t="n">
-        <v>0.270752504942805</v>
+        <v>0.0847431099745443</v>
       </c>
     </row>
     <row r="328">
@@ -10290,7 +10290,7 @@
         <v>1001</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.0650834525706592</v>
+        <v>-0.258062701071795</v>
       </c>
     </row>
     <row r="329">
@@ -10307,7 +10307,7 @@
         <v>1004</v>
       </c>
       <c r="E329" t="n">
-        <v>0.0656585671138005</v>
+        <v>-0.0721947606950718</v>
       </c>
     </row>
     <row r="330">
@@ -10324,7 +10324,7 @@
         <v>1006</v>
       </c>
       <c r="E330" t="n">
-        <v>-0.0627665431169242</v>
+        <v>-0.261066688159765</v>
       </c>
     </row>
     <row r="331">
@@ -10341,7 +10341,7 @@
         <v>1009</v>
       </c>
       <c r="E331" t="n">
-        <v>-0.348304031072851</v>
+        <v>-0.564371143139444</v>
       </c>
     </row>
     <row r="332">
@@ -10358,7 +10358,7 @@
         <v>1012</v>
       </c>
       <c r="E332" t="n">
-        <v>-0.433115250335174</v>
+        <v>-0.638264935320181</v>
       </c>
     </row>
     <row r="333">
@@ -10375,7 +10375,7 @@
         <v>1015</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.0320271878061051</v>
+        <v>-0.221738311411764</v>
       </c>
     </row>
     <row r="334">
@@ -10392,7 +10392,7 @@
         <v>1019</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.294015969977089</v>
+        <v>-0.494712856983189</v>
       </c>
     </row>
     <row r="335">
@@ -10409,7 +10409,7 @@
         <v>1022</v>
       </c>
       <c r="E335" t="n">
-        <v>-0.47919049663357</v>
+        <v>-0.697807130287594</v>
       </c>
     </row>
     <row r="336">
@@ -10426,7 +10426,7 @@
         <v>1025</v>
       </c>
       <c r="E336" t="n">
-        <v>-0.248393317749928</v>
+        <v>-0.438954923999244</v>
       </c>
     </row>
     <row r="337">
@@ -10443,7 +10443,7 @@
         <v>1027</v>
       </c>
       <c r="E337" t="n">
-        <v>-0.382285956576655</v>
+        <v>-0.587252158581219</v>
       </c>
     </row>
     <row r="338">
@@ -10460,7 +10460,7 @@
         <v>1030</v>
       </c>
       <c r="E338" t="n">
-        <v>-0.0990792294352276</v>
+        <v>-0.243981149450285</v>
       </c>
     </row>
     <row r="339">
@@ -10477,7 +10477,7 @@
         <v>1032</v>
       </c>
       <c r="E339" t="n">
-        <v>-0.042804796936373</v>
+        <v>-0.199878009948374</v>
       </c>
     </row>
     <row r="340">
@@ -10494,7 +10494,7 @@
         <v>1035</v>
       </c>
       <c r="E340" t="n">
-        <v>0.241327878586064</v>
+        <v>0.0690357072851128</v>
       </c>
     </row>
     <row r="341">
@@ -10511,7 +10511,7 @@
         <v>1038</v>
       </c>
       <c r="E341" t="n">
-        <v>0.0727112827267023</v>
+        <v>-0.0804912636207402</v>
       </c>
     </row>
     <row r="342">
@@ -10528,7 +10528,7 @@
         <v>1041</v>
       </c>
       <c r="E342" t="n">
-        <v>-0.432910543315208</v>
+        <v>-0.580071224070172</v>
       </c>
     </row>
     <row r="343">
@@ -10545,7 +10545,7 @@
         <v>1044</v>
       </c>
       <c r="E343" t="n">
-        <v>0.145158515111335</v>
+        <v>-0.0111184174954689</v>
       </c>
     </row>
     <row r="344">
@@ -10562,7 +10562,7 @@
         <v>1046</v>
       </c>
       <c r="E344" t="n">
-        <v>-0.975533116544531</v>
+        <v>-1.17575804555065</v>
       </c>
     </row>
     <row r="345">
@@ -10579,7 +10579,7 @@
         <v>1049</v>
       </c>
       <c r="E345" t="n">
-        <v>-0.730837783698391</v>
+        <v>-0.946825394380767</v>
       </c>
     </row>
     <row r="346">
@@ -10596,7 +10596,7 @@
         <v>1052</v>
       </c>
       <c r="E346" t="n">
-        <v>-0.2184918746255</v>
+        <v>-0.414936849598983</v>
       </c>
     </row>
     <row r="347">
@@ -10613,7 +10613,7 @@
         <v>1055</v>
       </c>
       <c r="E347" t="n">
-        <v>0.12746411059798</v>
+        <v>-0.0389573832704276</v>
       </c>
     </row>
     <row r="348">
@@ -10630,7 +10630,7 @@
         <v>1059</v>
       </c>
       <c r="E348" t="n">
-        <v>-0.916681982083882</v>
+        <v>-1.12848284969632</v>
       </c>
     </row>
     <row r="349">
@@ -10647,7 +10647,7 @@
         <v>1063</v>
       </c>
       <c r="E349" t="n">
-        <v>-0.208531475631451</v>
+        <v>-0.435910037709085</v>
       </c>
     </row>
     <row r="350">
@@ -10664,7 +10664,7 @@
         <v>1066</v>
       </c>
       <c r="E350" t="n">
-        <v>-0.264888221954727</v>
+        <v>-0.501382056352639</v>
       </c>
     </row>
     <row r="351">
@@ -10681,7 +10681,7 @@
         <v>1069</v>
       </c>
       <c r="E351" t="n">
-        <v>-0.0285749783746381</v>
+        <v>-0.20434006502962</v>
       </c>
     </row>
     <row r="352">
@@ -10698,7 +10698,7 @@
         <v>1072</v>
       </c>
       <c r="E352" t="n">
-        <v>0.377505502620554</v>
+        <v>0.189357155394973</v>
       </c>
     </row>
     <row r="353">
@@ -10715,7 +10715,7 @@
         <v>1074</v>
       </c>
       <c r="E353" t="n">
-        <v>-0.278133769702677</v>
+        <v>-0.447377492648463</v>
       </c>
     </row>
     <row r="354">
@@ -10732,7 +10732,7 @@
         <v>1077</v>
       </c>
       <c r="E354" t="n">
-        <v>0.106842684520577</v>
+        <v>-0.0955659453335928</v>
       </c>
     </row>
     <row r="355">
@@ -10749,7 +10749,7 @@
         <v>1080</v>
       </c>
       <c r="E355" t="n">
-        <v>0.0709893375290523</v>
+        <v>-0.106181928331382</v>
       </c>
     </row>
     <row r="356">
@@ -10766,7 +10766,7 @@
         <v>1083</v>
       </c>
       <c r="E356" t="n">
-        <v>0.128647789669841</v>
+        <v>-0.0658970698350362</v>
       </c>
     </row>
     <row r="357">
@@ -10783,7 +10783,7 @@
         <v>1086</v>
       </c>
       <c r="E357" t="n">
-        <v>0.369474973005979</v>
+        <v>0.135305057001438</v>
       </c>
     </row>
     <row r="358">
@@ -10800,7 +10800,7 @@
         <v>1090</v>
       </c>
       <c r="E358" t="n">
-        <v>-0.265494796349171</v>
+        <v>-0.470143710305167</v>
       </c>
     </row>
     <row r="359">
@@ -10817,7 +10817,7 @@
         <v>1093</v>
       </c>
       <c r="E359" t="n">
-        <v>-0.235037236131384</v>
+        <v>-0.392435730045572</v>
       </c>
     </row>
     <row r="360">
@@ -10834,7 +10834,7 @@
         <v>1096</v>
       </c>
       <c r="E360" t="n">
-        <v>-0.19392455155747</v>
+        <v>-0.351326576256752</v>
       </c>
     </row>
     <row r="361">
@@ -10851,7 +10851,7 @@
         <v>1099</v>
       </c>
       <c r="E361" t="n">
-        <v>-0.878277194682449</v>
+        <v>-1.11140037255084</v>
       </c>
     </row>
     <row r="362">
@@ -10868,7 +10868,7 @@
         <v>1102</v>
       </c>
       <c r="E362" t="n">
-        <v>-0.0741130635525869</v>
+        <v>-0.248216576193111</v>
       </c>
     </row>
     <row r="363">
@@ -10885,7 +10885,7 @@
         <v>1105</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.0796148333186937</v>
+        <v>-0.280705030125018</v>
       </c>
     </row>
     <row r="364">
@@ -10902,7 +10902,7 @@
         <v>1109</v>
       </c>
       <c r="E364" t="n">
-        <v>-0.515032732074605</v>
+        <v>-0.699294496399518</v>
       </c>
     </row>
     <row r="365">
@@ -10919,7 +10919,7 @@
         <v>1112</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.455246012976651</v>
+        <v>-0.673091211993467</v>
       </c>
     </row>
     <row r="366">
@@ -10936,7 +10936,7 @@
         <v>1115</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.454132225611679</v>
+        <v>-0.645215928106176</v>
       </c>
     </row>
     <row r="367">
@@ -10953,7 +10953,7 @@
         <v>1118</v>
       </c>
       <c r="E367" t="n">
-        <v>-0.151899257300589</v>
+        <v>-0.304450753972588</v>
       </c>
     </row>
     <row r="368">
@@ -10970,7 +10970,7 @@
         <v>1121</v>
       </c>
       <c r="E368" t="n">
-        <v>-0.820036691268491</v>
+        <v>-1.00906316976082</v>
       </c>
     </row>
     <row r="369">
@@ -10987,7 +10987,7 @@
         <v>1124</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.0498811573406299</v>
+        <v>-0.247696674682402</v>
       </c>
     </row>
     <row r="370">
@@ -11004,7 +11004,7 @@
         <v>1126</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.421488085572266</v>
+        <v>-0.575209234518493</v>
       </c>
     </row>
     <row r="371">
@@ -11021,7 +11021,7 @@
         <v>1129</v>
       </c>
       <c r="E371" t="n">
-        <v>-0.121064350641266</v>
+        <v>-0.293488794634597</v>
       </c>
     </row>
     <row r="372">
@@ -11038,7 +11038,7 @@
         <v>1133</v>
       </c>
       <c r="E372" t="n">
-        <v>-0.0469520462145709</v>
+        <v>-0.262969753160521</v>
       </c>
     </row>
     <row r="373">
@@ -11055,7 +11055,7 @@
         <v>1136</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.202716389726472</v>
+        <v>-0.407147910476923</v>
       </c>
     </row>
     <row r="374">
@@ -11072,7 +11072,7 @@
         <v>1139</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.300759020221278</v>
+        <v>-0.533242671786272</v>
       </c>
     </row>
     <row r="375">
@@ -11089,7 +11089,7 @@
         <v>1142</v>
       </c>
       <c r="E375" t="n">
-        <v>0.116443671055428</v>
+        <v>-0.0471118854271236</v>
       </c>
     </row>
     <row r="376">
@@ -11106,7 +11106,7 @@
         <v>1145</v>
       </c>
       <c r="E376" t="n">
-        <v>-0.575218627316856</v>
+        <v>-0.810149568368383</v>
       </c>
     </row>
     <row r="377">
@@ -11123,7 +11123,7 @@
         <v>1148</v>
       </c>
       <c r="E377" t="n">
-        <v>0.0496597673577923</v>
+        <v>-0.166622024394635</v>
       </c>
     </row>
     <row r="378">
@@ -11140,7 +11140,7 @@
         <v>1151</v>
       </c>
       <c r="E378" t="n">
-        <v>-0.304776301405238</v>
+        <v>-0.533968485603744</v>
       </c>
     </row>
     <row r="379">
@@ -11157,7 +11157,7 @@
         <v>1155</v>
       </c>
       <c r="E379" t="n">
-        <v>0.00453426428789332</v>
+        <v>-0.164961093608474</v>
       </c>
     </row>
     <row r="380">
@@ -11174,7 +11174,7 @@
         <v>1158</v>
       </c>
       <c r="E380" t="n">
-        <v>0.010620301711096</v>
+        <v>-0.147421665006497</v>
       </c>
     </row>
     <row r="381">
@@ -11191,7 +11191,7 @@
         <v>1161</v>
       </c>
       <c r="E381" t="n">
-        <v>-0.0652931400320691</v>
+        <v>-0.222537310334046</v>
       </c>
     </row>
     <row r="382">
@@ -11208,7 +11208,7 @@
         <v>1164</v>
       </c>
       <c r="E382" t="n">
-        <v>-0.284463131285581</v>
+        <v>-0.53296686588829</v>
       </c>
     </row>
     <row r="383">
@@ -11225,7 +11225,7 @@
         <v>1168</v>
       </c>
       <c r="E383" t="n">
-        <v>-0.401222477441873</v>
+        <v>-0.600075853208479</v>
       </c>
     </row>
     <row r="384">
@@ -11242,7 +11242,7 @@
         <v>1170</v>
       </c>
       <c r="E384" t="n">
-        <v>-0.491778986749618</v>
+        <v>-0.691902142979478</v>
       </c>
     </row>
     <row r="385">
@@ -11259,7 +11259,7 @@
         <v>1173</v>
       </c>
       <c r="E385" t="n">
-        <v>-0.0757297916113898</v>
+        <v>-0.278141672226413</v>
       </c>
     </row>
     <row r="386">
@@ -11276,7 +11276,7 @@
         <v>1176</v>
       </c>
       <c r="E386" t="n">
-        <v>-0.432993136240322</v>
+        <v>-0.636962298942342</v>
       </c>
     </row>
     <row r="387">
@@ -11293,7 +11293,7 @@
         <v>1180</v>
       </c>
       <c r="E387" t="n">
-        <v>-0.36112858031374</v>
+        <v>-0.612949547339988</v>
       </c>
     </row>
     <row r="388">
@@ -11310,7 +11310,7 @@
         <v>1183</v>
       </c>
       <c r="E388" t="n">
-        <v>-0.573381700780284</v>
+        <v>-0.785710834154114</v>
       </c>
     </row>
     <row r="389">
@@ -11327,7 +11327,7 @@
         <v>1187</v>
       </c>
       <c r="E389" t="n">
-        <v>0.0665944580719637</v>
+        <v>-0.145514398791766</v>
       </c>
     </row>
     <row r="390">
@@ -11344,7 +11344,7 @@
         <v>1190</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.609976710985421</v>
+        <v>-0.810355655239463</v>
       </c>
     </row>
     <row r="391">
@@ -11361,7 +11361,7 @@
         <v>1193</v>
       </c>
       <c r="E391" t="n">
-        <v>-0.618967723253484</v>
+        <v>-0.842855194831495</v>
       </c>
     </row>
     <row r="392">
@@ -11378,7 +11378,7 @@
         <v>1196</v>
       </c>
       <c r="E392" t="n">
-        <v>0.30945746557566</v>
+        <v>0.126674374223941</v>
       </c>
     </row>
     <row r="393">
@@ -11395,7 +11395,7 @@
         <v>1199</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.933191795178991</v>
+        <v>-1.1689692647415</v>
       </c>
     </row>
     <row r="394">
@@ -11412,7 +11412,7 @@
         <v>1202</v>
       </c>
       <c r="E394" t="n">
-        <v>-0.196714554118677</v>
+        <v>-0.36324590642913</v>
       </c>
     </row>
     <row r="395">
@@ -11429,7 +11429,7 @@
         <v>1206</v>
       </c>
       <c r="E395" t="n">
-        <v>-0.288373299262091</v>
+        <v>-0.499577491107264</v>
       </c>
     </row>
     <row r="396">
@@ -11446,7 +11446,7 @@
         <v>1209</v>
       </c>
       <c r="E396" t="n">
-        <v>-0.801079711954326</v>
+        <v>-0.999498215678234</v>
       </c>
     </row>
     <row r="397">
@@ -11463,7 +11463,7 @@
         <v>1212</v>
       </c>
       <c r="E397" t="n">
-        <v>-0.0424335140777985</v>
+        <v>-0.223435237220499</v>
       </c>
     </row>
     <row r="398">
@@ -11480,7 +11480,7 @@
         <v>1215</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.215258480590572</v>
+        <v>-0.407462992004172</v>
       </c>
     </row>
     <row r="399">
@@ -11497,7 +11497,7 @@
         <v>1218</v>
       </c>
       <c r="E399" t="n">
-        <v>-0.545297985803599</v>
+        <v>-0.722918504671953</v>
       </c>
     </row>
     <row r="400">
@@ -11514,7 +11514,7 @@
         <v>1221</v>
       </c>
       <c r="E400" t="n">
-        <v>0.172141379622094</v>
+        <v>0.0125797747664851</v>
       </c>
     </row>
     <row r="401">
@@ -11531,7 +11531,7 @@
         <v>1224</v>
       </c>
       <c r="E401" t="n">
-        <v>0.240718186737615</v>
+        <v>0.0545392660002283</v>
       </c>
     </row>
     <row r="402">
@@ -11548,7 +11548,7 @@
         <v>1227</v>
       </c>
       <c r="E402" t="n">
-        <v>-0.134543730617829</v>
+        <v>-0.296229755052337</v>
       </c>
     </row>
     <row r="403">
@@ -11565,7 +11565,7 @@
         <v>1230</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.490905837732882</v>
+        <v>-0.716868172617211</v>
       </c>
     </row>
     <row r="404">
@@ -11582,7 +11582,7 @@
         <v>1233</v>
       </c>
       <c r="E404" t="n">
-        <v>-1.04525157905188</v>
+        <v>-1.19130252949284</v>
       </c>
     </row>
     <row r="405">
@@ -11599,7 +11599,7 @@
         <v>1236</v>
       </c>
       <c r="E405" t="n">
-        <v>0.240829672537894</v>
+        <v>0.0677378585348608</v>
       </c>
     </row>
     <row r="406">
@@ -11616,7 +11616,7 @@
         <v>1239</v>
       </c>
       <c r="E406" t="n">
-        <v>-0.0113038883177458</v>
+        <v>-0.180327560370673</v>
       </c>
     </row>
     <row r="407">
@@ -11633,7 +11633,7 @@
         <v>1242</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.74921463542589</v>
+        <v>-0.973568494773149</v>
       </c>
     </row>
     <row r="408">
@@ -11650,7 +11650,7 @@
         <v>1245</v>
       </c>
       <c r="E408" t="n">
-        <v>0.00908741226141268</v>
+        <v>-0.161695731032783</v>
       </c>
     </row>
     <row r="409">
@@ -11667,7 +11667,7 @@
         <v>1248</v>
       </c>
       <c r="E409" t="n">
-        <v>0.30436074569972</v>
+        <v>0.141221173850842</v>
       </c>
     </row>
     <row r="410">
@@ -11684,7 +11684,7 @@
         <v>1251</v>
       </c>
       <c r="E410" t="n">
-        <v>-0.209176529163359</v>
+        <v>-0.411344309580271</v>
       </c>
     </row>
     <row r="411">
@@ -11701,7 +11701,7 @@
         <v>1254</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.972163562282649</v>
+        <v>-1.16439549249426</v>
       </c>
     </row>
     <row r="412">
@@ -11718,7 +11718,7 @@
         <v>1257</v>
       </c>
       <c r="E412" t="n">
-        <v>0.181447925188395</v>
+        <v>0.0162568024534295</v>
       </c>
     </row>
     <row r="413">
@@ -11735,7 +11735,7 @@
         <v>1260</v>
       </c>
       <c r="E413" t="n">
-        <v>0.0108954014061025</v>
+        <v>-0.13765634041486</v>
       </c>
     </row>
     <row r="414">
@@ -11752,7 +11752,7 @@
         <v>1263</v>
       </c>
       <c r="E414" t="n">
-        <v>0.0351357101652512</v>
+        <v>-0.128118548157504</v>
       </c>
     </row>
     <row r="415">
@@ -11769,7 +11769,7 @@
         <v>1266</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.265216976968082</v>
+        <v>-0.421612162045355</v>
       </c>
     </row>
     <row r="416">
@@ -11786,7 +11786,7 @@
         <v>1269</v>
       </c>
       <c r="E416" t="n">
-        <v>-0.45274853315693</v>
+        <v>-0.628655849346819</v>
       </c>
     </row>
     <row r="417">
@@ -11803,7 +11803,7 @@
         <v>1272</v>
       </c>
       <c r="E417" t="n">
-        <v>-0.673496635172185</v>
+        <v>-0.873568485055628</v>
       </c>
     </row>
     <row r="418">
@@ -11820,7 +11820,7 @@
         <v>1275</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.78903718670042</v>
+        <v>-1.00855360359635</v>
       </c>
     </row>
     <row r="419">
@@ -11837,7 +11837,7 @@
         <v>1278</v>
       </c>
       <c r="E419" t="n">
-        <v>0.0322194848337876</v>
+        <v>-0.155045358852542</v>
       </c>
     </row>
     <row r="420">
@@ -11854,7 +11854,7 @@
         <v>1281</v>
       </c>
       <c r="E420" t="n">
-        <v>-0.225700187503727</v>
+        <v>-0.392765256731895</v>
       </c>
     </row>
     <row r="421">
@@ -11871,7 +11871,7 @@
         <v>1284</v>
       </c>
       <c r="E421" t="n">
-        <v>0.439188769599049</v>
+        <v>0.255657148655949</v>
       </c>
     </row>
     <row r="422">
@@ -11888,7 +11888,7 @@
         <v>1287</v>
       </c>
       <c r="E422" t="n">
-        <v>-0.87021744391047</v>
+        <v>-1.06353572621386</v>
       </c>
     </row>
     <row r="423">
@@ -11905,7 +11905,7 @@
         <v>1290</v>
       </c>
       <c r="E423" t="n">
-        <v>0.135521058839559</v>
+        <v>-0.0261684058522819</v>
       </c>
     </row>
     <row r="424">
@@ -11922,7 +11922,7 @@
         <v>1293</v>
       </c>
       <c r="E424" t="n">
-        <v>-0.392394322975161</v>
+        <v>-0.602778382957083</v>
       </c>
     </row>
     <row r="425">
@@ -11939,7 +11939,7 @@
         <v>1296</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.164030351155385</v>
+        <v>-0.34795922285055</v>
       </c>
     </row>
     <row r="426">
@@ -11956,7 +11956,7 @@
         <v>1299</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.182589420418535</v>
+        <v>-0.392187425745887</v>
       </c>
     </row>
     <row r="427">
@@ -11973,7 +11973,7 @@
         <v>1301</v>
       </c>
       <c r="E427" t="n">
-        <v>0.0440427038037149</v>
+        <v>-0.114526047468855</v>
       </c>
     </row>
     <row r="428">
@@ -11990,7 +11990,7 @@
         <v>1304</v>
       </c>
       <c r="E428" t="n">
-        <v>-0.501149914794186</v>
+        <v>-0.722753652664177</v>
       </c>
     </row>
     <row r="429">
@@ -12007,7 +12007,7 @@
         <v>1307</v>
       </c>
       <c r="E429" t="n">
-        <v>-0.662387925884036</v>
+        <v>-0.857468043939099</v>
       </c>
     </row>
     <row r="430">
@@ -12024,7 +12024,7 @@
         <v>1310</v>
       </c>
       <c r="E430" t="n">
-        <v>-0.0963333423280578</v>
+        <v>-0.248857474688468</v>
       </c>
     </row>
     <row r="431">
@@ -12041,7 +12041,7 @@
         <v>1313</v>
       </c>
       <c r="E431" t="n">
-        <v>-0.940733703959779</v>
+        <v>-1.13923152299577</v>
       </c>
     </row>
     <row r="432">
@@ -12058,7 +12058,7 @@
         <v>1316</v>
       </c>
       <c r="E432" t="n">
-        <v>-0.0253255662437981</v>
+        <v>-0.230419591479309</v>
       </c>
     </row>
     <row r="433">
@@ -12075,7 +12075,7 @@
         <v>1319</v>
       </c>
       <c r="E433" t="n">
-        <v>0.127304767832121</v>
+        <v>-0.0387348072157777</v>
       </c>
     </row>
     <row r="434">
@@ -12092,7 +12092,7 @@
         <v>1322</v>
       </c>
       <c r="E434" t="n">
-        <v>-0.551639939874692</v>
+        <v>-0.741197478014125</v>
       </c>
     </row>
     <row r="435">
@@ -12109,7 +12109,7 @@
         <v>1325</v>
       </c>
       <c r="E435" t="n">
-        <v>0.0325118132581611</v>
+        <v>-0.169075414551639</v>
       </c>
     </row>
     <row r="436">
@@ -12126,7 +12126,7 @@
         <v>1328</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.0891441969387529</v>
+        <v>-0.269152311558276</v>
       </c>
     </row>
     <row r="437">
@@ -12143,7 +12143,7 @@
         <v>1331</v>
       </c>
       <c r="E437" t="n">
-        <v>-0.205583546590869</v>
+        <v>-0.430483547039041</v>
       </c>
     </row>
     <row r="438">
@@ -12160,7 +12160,7 @@
         <v>1335</v>
       </c>
       <c r="E438" t="n">
-        <v>-1.06270215095736</v>
+        <v>-1.25967615479265</v>
       </c>
     </row>
     <row r="439">
@@ -12177,7 +12177,7 @@
         <v>1338</v>
       </c>
       <c r="E439" t="n">
-        <v>-0.645963226912774</v>
+        <v>-0.8860952315929</v>
       </c>
     </row>
     <row r="440">
@@ -12194,7 +12194,7 @@
         <v>1341</v>
       </c>
       <c r="E440" t="n">
-        <v>-1.09880181718237</v>
+        <v>-1.31105189644446</v>
       </c>
     </row>
     <row r="441">
@@ -12211,7 +12211,7 @@
         <v>1344</v>
       </c>
       <c r="E441" t="n">
-        <v>-1.49824139308829</v>
+        <v>-1.69449329999032</v>
       </c>
     </row>
     <row r="442">
@@ -12228,7 +12228,7 @@
         <v>1347</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.242959568360351</v>
+        <v>-0.467301194931314</v>
       </c>
     </row>
     <row r="443">
@@ -12245,7 +12245,7 @@
         <v>1350</v>
       </c>
       <c r="E443" t="n">
-        <v>-0.890977800382574</v>
+        <v>-1.076057808236</v>
       </c>
     </row>
     <row r="444">
@@ -12262,7 +12262,7 @@
         <v>1353</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.589552426975024</v>
+        <v>-0.783135462803128</v>
       </c>
     </row>
     <row r="445">
@@ -12279,7 +12279,7 @@
         <v>1356</v>
       </c>
       <c r="E445" t="n">
-        <v>-1.05794756117452</v>
+        <v>-1.24734904792868</v>
       </c>
     </row>
     <row r="446">
@@ -12296,7 +12296,7 @@
         <v>1359</v>
       </c>
       <c r="E446" t="n">
-        <v>-0.667510935939427</v>
+        <v>-0.848025560167463</v>
       </c>
     </row>
     <row r="447">
@@ -12313,7 +12313,7 @@
         <v>1363</v>
       </c>
       <c r="E447" t="n">
-        <v>-0.625474995608138</v>
+        <v>-0.802302946542237</v>
       </c>
     </row>
     <row r="448">
@@ -12330,7 +12330,7 @@
         <v>1366</v>
       </c>
       <c r="E448" t="n">
-        <v>-0.349556010963816</v>
+        <v>-0.586788253807105</v>
       </c>
     </row>
     <row r="449">
@@ -12347,7 +12347,7 @@
         <v>1369</v>
       </c>
       <c r="E449" t="n">
-        <v>0.27101539432805</v>
+        <v>0.103350635741603</v>
       </c>
     </row>
     <row r="450">
@@ -12364,7 +12364,7 @@
         <v>1372</v>
       </c>
       <c r="E450" t="n">
-        <v>-0.278167399767664</v>
+        <v>-0.445132327658405</v>
       </c>
     </row>
     <row r="451">
@@ -12381,7 +12381,7 @@
         <v>1375</v>
       </c>
       <c r="E451" t="n">
-        <v>0.0403643248875644</v>
+        <v>-0.121908164017492</v>
       </c>
     </row>
     <row r="452">
@@ -12398,7 +12398,7 @@
         <v>1378</v>
       </c>
       <c r="E452" t="n">
-        <v>-0.178127084267687</v>
+        <v>-0.344214986200312</v>
       </c>
     </row>
     <row r="453">
@@ -12415,7 +12415,7 @@
         <v>1381</v>
       </c>
       <c r="E453" t="n">
-        <v>0.26473008963397</v>
+        <v>0.0995233631979227</v>
       </c>
     </row>
     <row r="454">
@@ -12432,7 +12432,7 @@
         <v>1383</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.0140428019823431</v>
+        <v>-0.177187901483218</v>
       </c>
     </row>
     <row r="455">
@@ -12449,7 +12449,7 @@
         <v>1386</v>
       </c>
       <c r="E455" t="n">
-        <v>0.217266390992814</v>
+        <v>0.0383941624501725</v>
       </c>
     </row>
     <row r="456">
@@ -12466,7 +12466,7 @@
         <v>1389</v>
       </c>
       <c r="E456" t="n">
-        <v>-0.0908057832802321</v>
+        <v>-0.300234580616904</v>
       </c>
     </row>
     <row r="457">
@@ -12483,7 +12483,7 @@
         <v>1392</v>
       </c>
       <c r="E457" t="n">
-        <v>-0.448484916653289</v>
+        <v>-0.643083083581774</v>
       </c>
     </row>
     <row r="458">
@@ -12500,7 +12500,7 @@
         <v>1396</v>
       </c>
       <c r="E458" t="n">
-        <v>-0.595630211045866</v>
+        <v>-0.777326203032959</v>
       </c>
     </row>
     <row r="459">
@@ -12517,7 +12517,7 @@
         <v>1399</v>
       </c>
       <c r="E459" t="n">
-        <v>-0.565206618399132</v>
+        <v>-0.74187282138712</v>
       </c>
     </row>
     <row r="460">
@@ -12534,7 +12534,7 @@
         <v>1402</v>
       </c>
       <c r="E460" t="n">
-        <v>-0.668353482325727</v>
+        <v>-0.870777138083277</v>
       </c>
     </row>
     <row r="461">
@@ -12551,7 +12551,7 @@
         <v>1405</v>
       </c>
       <c r="E461" t="n">
-        <v>-0.645392108896381</v>
+        <v>-0.880928066183385</v>
       </c>
     </row>
     <row r="462">
@@ -12568,7 +12568,7 @@
         <v>1408</v>
       </c>
       <c r="E462" t="n">
-        <v>-0.357621650834264</v>
+        <v>-0.520725863111293</v>
       </c>
     </row>
     <row r="463">
@@ -12585,7 +12585,7 @@
         <v>1411</v>
       </c>
       <c r="E463" t="n">
-        <v>-0.333488760263296</v>
+        <v>-0.551501676889367</v>
       </c>
     </row>
     <row r="464">
@@ -12602,7 +12602,7 @@
         <v>1414</v>
       </c>
       <c r="E464" t="n">
-        <v>-0.491994191662543</v>
+        <v>-0.666863126743882</v>
       </c>
     </row>
     <row r="465">
@@ -12619,7 +12619,7 @@
         <v>1417</v>
       </c>
       <c r="E465" t="n">
-        <v>-0.614671353089988</v>
+        <v>-0.781213072520044</v>
       </c>
     </row>
     <row r="466">
@@ -12636,7 +12636,7 @@
         <v>1420</v>
       </c>
       <c r="E466" t="n">
-        <v>-0.795928209043509</v>
+        <v>-0.969291547615597</v>
       </c>
     </row>
     <row r="467">
@@ -12653,7 +12653,7 @@
         <v>1423</v>
       </c>
       <c r="E467" t="n">
-        <v>-0.537006870456885</v>
+        <v>-0.749564714665251</v>
       </c>
     </row>
     <row r="468">
@@ -12670,7 +12670,7 @@
         <v>1426</v>
       </c>
       <c r="E468" t="n">
-        <v>-0.400889307250061</v>
+        <v>-0.614663817886431</v>
       </c>
     </row>
     <row r="469">
@@ -12687,7 +12687,7 @@
         <v>1429</v>
       </c>
       <c r="E469" t="n">
-        <v>-0.525434940358887</v>
+        <v>-0.727188427299702</v>
       </c>
     </row>
     <row r="470">
@@ -12704,7 +12704,7 @@
         <v>1432</v>
       </c>
       <c r="E470" t="n">
-        <v>-0.399033535665505</v>
+        <v>-0.612694011779183</v>
       </c>
     </row>
     <row r="471">
@@ -12721,7 +12721,7 @@
         <v>1435</v>
       </c>
       <c r="E471" t="n">
-        <v>0.0536944491525682</v>
+        <v>-0.133330114395325</v>
       </c>
     </row>
     <row r="472">
@@ -12738,7 +12738,7 @@
         <v>1439</v>
       </c>
       <c r="E472" t="n">
-        <v>-0.805961182779224</v>
+        <v>-1.01998353049338</v>
       </c>
     </row>
     <row r="473">
@@ -12755,7 +12755,7 @@
         <v>1442</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.490095061668147</v>
+        <v>-0.73126442676142</v>
       </c>
     </row>
     <row r="474">
@@ -12772,7 +12772,7 @@
         <v>1445</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.25732968997041</v>
+        <v>-0.457650152000659</v>
       </c>
     </row>
     <row r="475">
@@ -12789,7 +12789,7 @@
         <v>1448</v>
       </c>
       <c r="E475" t="n">
-        <v>-0.993289213648842</v>
+        <v>-1.21081530567993</v>
       </c>
     </row>
     <row r="476">
@@ -12806,7 +12806,7 @@
         <v>1451</v>
       </c>
       <c r="E476" t="n">
-        <v>-0.0173027695957053</v>
+        <v>-0.178189657368354</v>
       </c>
     </row>
     <row r="477">
@@ -12823,7 +12823,7 @@
         <v>1454</v>
       </c>
       <c r="E477" t="n">
-        <v>-0.269752961388539</v>
+        <v>-0.489967966795399</v>
       </c>
     </row>
     <row r="478">
@@ -12840,7 +12840,7 @@
         <v>1457</v>
       </c>
       <c r="E478" t="n">
-        <v>-0.688558506761818</v>
+        <v>-0.894124003070075</v>
       </c>
     </row>
   </sheetData>
